--- a/documentatie/overig/normaliseren.xlsx
+++ b/documentatie/overig/normaliseren.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelle\CCSB\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelle\CCSB\documentatie\overig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A86316-D503-4FD6-9863-8EC396902CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08DC11-0729-4FCD-BED5-30AF868BC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{13074645-F322-4E3E-989B-7CEE18CE6A0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13074645-F322-4E3E-989B-7CEE18CE6A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -309,6 +306,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -625,9 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F7C688-0A56-4D79-9410-F1D9A9507421}">
   <dimension ref="A2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -656,444 +654,454 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="H10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="14"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="12"/>
-      <c r="H29" s="14"/>
+      <c r="B29" s="9"/>
+      <c r="D29" s="16"/>
+      <c r="F29" s="11"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="F30" s="8"/>
-      <c r="H30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="D31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="18"/>
+      <c r="B32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="D33" s="7"/>
-      <c r="F33" s="12"/>
-      <c r="H33" s="18"/>
+      <c r="B33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="11"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="F34" s="8"/>
-      <c r="H34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="F35" s="8"/>
-      <c r="H35" s="14"/>
+      <c r="B35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="D36" s="17"/>
-      <c r="F36" s="8"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="9"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="D37" s="17"/>
-      <c r="F37" s="12"/>
-      <c r="H37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="D37" s="16"/>
+      <c r="F37" s="11"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="D38" s="17"/>
-      <c r="F38" s="12"/>
-      <c r="H38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="11"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="D39" s="17"/>
-      <c r="F39" s="15"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="14"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="D40" s="17"/>
-      <c r="F40" s="15"/>
-      <c r="H40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="D41" s="17"/>
-      <c r="F41" s="15"/>
-      <c r="H41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="14"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="D42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="14"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="D43" s="17"/>
-      <c r="F43" s="15"/>
-      <c r="H43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="F44" s="15"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="F44" s="14"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="D45" s="17"/>
-      <c r="F45" s="12"/>
-      <c r="H45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="D45" s="16"/>
+      <c r="F45" s="11"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="D46" s="17"/>
-      <c r="F46" s="12"/>
-      <c r="H46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="11"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="D47" s="17"/>
-      <c r="F47" s="12"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="9"/>
+      <c r="D47" s="16"/>
+      <c r="F47" s="11"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="19"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="F51" s="20" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="F51" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="F52" s="20" t="s">
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="F52" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="20"/>
+      <c r="D53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G54" s="21"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="21"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="B64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="H64" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Templates xmlns="ed7b762e-340d-4c5f-a064-0a0a1780fce1" xsi:nil="true"/>
@@ -1166,15 +1174,6 @@
     </Member_Groups>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1665,19 +1664,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D1F7C9-ABCC-4447-877A-EBB678B3E174}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316D33E0-8B65-4877-AEA5-7A9BE8600157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ed7b762e-340d-4c5f-a064-0a0a1780fce1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D1F7C9-ABCC-4447-877A-EBB678B3E174}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentatie/overig/normaliseren.xlsx
+++ b/documentatie/overig/normaliseren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelle\CCSB\documentatie\overig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08DC11-0729-4FCD-BED5-30AF868BC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E1ECEB-0F7D-4F82-A7CE-9A696CA75B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13074645-F322-4E3E-989B-7CEE18CE6A0E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
   <si>
     <t>UNF</t>
   </si>
@@ -118,6 +118,45 @@
   </si>
   <si>
     <t>stroomaansluiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klantnummer </t>
+  </si>
+  <si>
+    <t>factuurnummer</t>
+  </si>
+  <si>
+    <t>tussenvoegsels</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefoonnr</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>voertuig</t>
+  </si>
+  <si>
+    <t>voertuigId</t>
+  </si>
+  <si>
+    <t>reseveringen</t>
+  </si>
+  <si>
+    <t>reseveringsnr</t>
+  </si>
+  <si>
+    <t>tijdstip</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserId</t>
   </si>
 </sst>
 </file>
@@ -245,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -307,6 +346,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -315,6 +366,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF3B4A7"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -625,7 +690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F7C688-0A56-4D79-9410-F1D9A9507421}">
   <dimension ref="A2:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -657,189 +724,323 @@
       <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="13"/>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="8"/>
+      <c r="D12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="D22" s="6"/>
-      <c r="F22" s="14"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="D26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
-      <c r="D27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="D27" s="16"/>
+      <c r="F27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
-      <c r="D28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="F28" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
@@ -849,31 +1050,31 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="16"/>
       <c r="F30" s="7"/>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="16"/>
       <c r="F31" s="7"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="16"/>
       <c r="F32" s="11"/>
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="16"/>
       <c r="F33" s="11"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="16"/>
       <c r="F34" s="7"/>
       <c r="H34" s="12"/>
     </row>
@@ -903,60 +1104,64 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="D39" s="16"/>
+      <c r="D39" s="25"/>
       <c r="F39" s="14"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
-      <c r="D40" s="16"/>
+      <c r="D40" s="25"/>
       <c r="F40" s="14"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
-      <c r="D41" s="16"/>
+      <c r="D41" s="25"/>
       <c r="F41" s="14"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="25"/>
       <c r="F42" s="14"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="25"/>
       <c r="F43" s="14"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="D44" s="10"/>
+      <c r="D44" s="25"/>
       <c r="F44" s="14"/>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
-      <c r="D45" s="16"/>
+      <c r="D45" s="25"/>
       <c r="F45" s="11"/>
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
-      <c r="D46" s="16"/>
+      <c r="D46" s="25"/>
       <c r="F46" s="11"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
-      <c r="D47" s="16"/>
+      <c r="D47" s="25"/>
       <c r="F47" s="11"/>
       <c r="H47" s="17"/>
     </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D48" s="26"/>
+    </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C49" s="18"/>
+      <c r="D49" s="27"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="19" t="s">
@@ -1093,15 +1298,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Templates xmlns="ed7b762e-340d-4c5f-a064-0a0a1780fce1" xsi:nil="true"/>
@@ -1174,6 +1370,15 @@
     </Member_Groups>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1664,19 +1869,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D1F7C9-ABCC-4447-877A-EBB678B3E174}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316D33E0-8B65-4877-AEA5-7A9BE8600157}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed7b762e-340d-4c5f-a064-0a0a1780fce1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{316D33E0-8B65-4877-AEA5-7A9BE8600157}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83D1F7C9-ABCC-4447-877A-EBB678B3E174}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed7b762e-340d-4c5f-a064-0a0a1780fce1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
